--- a/第二天.xlsx
+++ b/第二天.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362">
   <si>
     <t>白</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>13673813344</t>
+  </si>
+  <si>
+    <t>sdsdsd</t>
   </si>
   <si>
     <t>13903956121</t>
@@ -1128,51 +1131,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1190,52 +1148,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1265,8 +1178,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,6 +1257,28 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1298,7 +1301,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,13 +1331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,25 +1343,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,13 +1373,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,49 +1451,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1448,37 +1481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,21 +1492,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1532,30 +1520,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1566,6 +1530,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1589,6 +1568,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1597,10 +1600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1609,139 +1612,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
@@ -5757,254 +5760,257 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" spans="1:2">
       <c r="A460" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="B460" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="510" spans="1:1">
@@ -6064,82 +6070,82 @@
     </row>
     <row r="521" spans="1:1">
       <c r="A521" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="537" spans="1:1">
@@ -6154,172 +6160,172 @@
     </row>
     <row r="539" spans="1:1">
       <c r="A539" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="573" spans="1:1">
@@ -6329,42 +6335,42 @@
     </row>
     <row r="574" spans="1:1">
       <c r="A574" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="582" spans="1:1">
@@ -6379,17 +6385,17 @@
     </row>
     <row r="584" spans="1:1">
       <c r="A584" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="587" spans="1:1">
@@ -6399,17 +6405,17 @@
     </row>
     <row r="588" spans="1:1">
       <c r="A588" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="591" spans="1:1">
@@ -6429,52 +6435,52 @@
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="604" spans="1:1">
@@ -7129,757 +7135,757 @@
     </row>
     <row r="734" spans="1:1">
       <c r="A734" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="885" spans="1:1">

--- a/第二天.xlsx
+++ b/第二天.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364">
   <si>
     <t>白</t>
   </si>
@@ -287,10 +287,16 @@
     <t>13903956121</t>
   </si>
   <si>
+    <t>fdds</t>
+  </si>
+  <si>
     <t>13544314430</t>
   </si>
   <si>
     <t>13301622975</t>
+  </si>
+  <si>
+    <t>sf</t>
   </si>
   <si>
     <t>13998078583</t>
@@ -1112,9 +1118,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1129,6 +1135,13 @@
       <sz val="20"/>
       <name val="ˎ̥"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1149,6 +1162,55 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,14 +1241,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1203,6 +1257,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1210,58 +1271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1274,16 +1284,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1301,25 +1307,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,13 +1355,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,6 +1433,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1392,36 +1464,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,42 +1488,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,10 +1606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1612,140 +1618,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2080,7 +2086,7 @@
   <dimension ref="A1:B885"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="B460" sqref="B460"/>
+      <selection activeCell="B463" sqref="B463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="24.6" outlineLevelCol="1"/>
@@ -5768,249 +5774,255 @@
         <v>87</v>
       </c>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" spans="1:2">
       <c r="A461" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="B461" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
       <c r="A463" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="B463" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="510" spans="1:1">
@@ -6070,82 +6082,82 @@
     </row>
     <row r="521" spans="1:1">
       <c r="A521" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="537" spans="1:1">
@@ -6160,172 +6172,172 @@
     </row>
     <row r="539" spans="1:1">
       <c r="A539" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="573" spans="1:1">
@@ -6335,42 +6347,42 @@
     </row>
     <row r="574" spans="1:1">
       <c r="A574" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="582" spans="1:1">
@@ -6385,17 +6397,17 @@
     </row>
     <row r="584" spans="1:1">
       <c r="A584" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="587" spans="1:1">
@@ -6405,17 +6417,17 @@
     </row>
     <row r="588" spans="1:1">
       <c r="A588" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="591" spans="1:1">
@@ -6435,52 +6447,52 @@
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="604" spans="1:1">
@@ -7135,757 +7147,757 @@
     </row>
     <row r="734" spans="1:1">
       <c r="A734" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="885" spans="1:1">

--- a/第二天.xlsx
+++ b/第二天.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361">
   <si>
     <t>白</t>
   </si>
@@ -281,22 +281,13 @@
     <t>13673813344</t>
   </si>
   <si>
-    <t>sdsdsd</t>
-  </si>
-  <si>
     <t>13903956121</t>
   </si>
   <si>
-    <t>fdds</t>
-  </si>
-  <si>
     <t>13544314430</t>
   </si>
   <si>
     <t>13301622975</t>
-  </si>
-  <si>
-    <t>sf</t>
   </si>
   <si>
     <t>13998078583</t>
@@ -1137,13 +1128,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1167,55 +1151,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1234,9 +1169,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1257,13 +1192,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1271,7 +1199,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1291,6 +1263,25 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1307,31 +1298,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,49 +1340,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,30 +1388,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1464,6 +1395,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,6 +1455,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,17 +1548,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1598,6 +1578,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1606,10 +1597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1618,140 +1609,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2086,7 +2077,7 @@
   <dimension ref="A1:B885"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="B463" sqref="B463"/>
+      <selection activeCell="B460" sqref="B460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="24.6" outlineLevelCol="1"/>
@@ -5766,263 +5757,254 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:1">
       <c r="A460" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B460" t="s">
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="2" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2">
-      <c r="A461" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B461" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
       <c r="A463" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B463" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="510" spans="1:1">
@@ -6082,82 +6064,82 @@
     </row>
     <row r="521" spans="1:1">
       <c r="A521" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="537" spans="1:1">
@@ -6172,172 +6154,172 @@
     </row>
     <row r="539" spans="1:1">
       <c r="A539" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="573" spans="1:1">
@@ -6347,42 +6329,42 @@
     </row>
     <row r="574" spans="1:1">
       <c r="A574" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="582" spans="1:1">
@@ -6397,17 +6379,17 @@
     </row>
     <row r="584" spans="1:1">
       <c r="A584" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="587" spans="1:1">
@@ -6417,17 +6399,17 @@
     </row>
     <row r="588" spans="1:1">
       <c r="A588" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="591" spans="1:1">
@@ -6447,52 +6429,52 @@
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="604" spans="1:1">
@@ -7147,757 +7129,757 @@
     </row>
     <row r="734" spans="1:1">
       <c r="A734" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="885" spans="1:1">

--- a/第二天.xlsx
+++ b/第二天.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$1088</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$1062</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$B$451</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336">
   <si>
     <t>白</t>
   </si>
@@ -278,51 +278,15 @@
     <t>13816523004</t>
   </si>
   <si>
-    <t>13673813344</t>
-  </si>
-  <si>
-    <t>13903956121</t>
-  </si>
-  <si>
-    <t>13544314430</t>
-  </si>
-  <si>
-    <t>13301622975</t>
-  </si>
-  <si>
     <t>13998078583</t>
   </si>
   <si>
-    <t>13834191982</t>
-  </si>
-  <si>
-    <t>13359205613</t>
-  </si>
-  <si>
-    <t>13507351609</t>
-  </si>
-  <si>
-    <t>13389212116</t>
-  </si>
-  <si>
-    <t>13978863566</t>
-  </si>
-  <si>
     <t>13693115016</t>
   </si>
   <si>
     <t>13922457556</t>
   </si>
   <si>
-    <t>13961220599</t>
-  </si>
-  <si>
-    <t>13706294866</t>
-  </si>
-  <si>
-    <t>13817748157</t>
-  </si>
-  <si>
     <t>13317861785</t>
   </si>
   <si>
@@ -332,33 +296,12 @@
     <t>13841218128</t>
   </si>
   <si>
-    <t>13570842538</t>
-  </si>
-  <si>
     <t>13910775960</t>
   </si>
   <si>
-    <t>13006955270</t>
-  </si>
-  <si>
-    <t>13387756178</t>
-  </si>
-  <si>
-    <t>13338555867</t>
-  </si>
-  <si>
-    <t>13514125968</t>
-  </si>
-  <si>
-    <t>13820969911</t>
-  </si>
-  <si>
     <t>13952119621</t>
   </si>
   <si>
-    <t>13841980536</t>
-  </si>
-  <si>
     <t>13949457295</t>
   </si>
   <si>
@@ -374,12 +317,6 @@
     <t>13619268271</t>
   </si>
   <si>
-    <t>13855295569</t>
-  </si>
-  <si>
-    <t>13019176041</t>
-  </si>
-  <si>
     <t>13817902538</t>
   </si>
   <si>
@@ -389,27 +326,15 @@
     <t>13877629444</t>
   </si>
   <si>
-    <t>13384864555</t>
-  </si>
-  <si>
     <t>13593171781</t>
   </si>
   <si>
     <t>13022077516</t>
   </si>
   <si>
-    <t>13521559307</t>
-  </si>
-  <si>
     <t>13526607220</t>
   </si>
   <si>
-    <t>13719049533</t>
-  </si>
-  <si>
-    <t>13966727639</t>
-  </si>
-  <si>
     <t>13664147838</t>
   </si>
   <si>
@@ -422,10 +347,10 @@
     <t>13839516965</t>
   </si>
   <si>
-    <t>13102633699</t>
-  </si>
-  <si>
     <t>13078072646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
   <si>
     <t>13944252353</t>
@@ -1128,6 +1053,13 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1151,6 +1083,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1169,9 +1139,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1192,6 +1162,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1199,51 +1176,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1259,14 +1192,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1298,25 +1223,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,19 +1271,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,6 +1349,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1395,42 +1380,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,30 +1404,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,6 +1473,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1578,17 +1514,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1597,10 +1522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1609,134 +1534,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
@@ -2074,10 +1999,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B885"/>
+  <dimension ref="A1:B859"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="B460" sqref="B460"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="B485" sqref="B485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="24.6" outlineLevelCol="1"/>
@@ -5757,444 +5682,522 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" spans="1:2">
       <c r="A460" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="461" spans="1:1">
+      <c r="B460" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
       <c r="A461" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="462" spans="1:1">
+      <c r="B461" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
       <c r="A462" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="463" spans="1:1">
+      <c r="B462" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
       <c r="A463" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="464" spans="1:1">
+      <c r="B463" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
       <c r="A464" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="465" spans="1:1">
+      <c r="B464" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
       <c r="A465" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="466" spans="1:1">
+      <c r="B465" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
       <c r="A466" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="467" spans="1:1">
+      <c r="B466" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
       <c r="A467" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="468" spans="1:1">
+      <c r="B467" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
       <c r="A468" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="469" spans="1:1">
+      <c r="B468" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
       <c r="A469" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="470" spans="1:1">
+      <c r="B469" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
       <c r="A470" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="471" spans="1:1">
+      <c r="B470" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
       <c r="A471" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="472" spans="1:1">
+      <c r="B471" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
       <c r="A472" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="473" spans="1:1">
+      <c r="B472" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
       <c r="A473" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="474" spans="1:1">
+      <c r="B473" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
       <c r="A474" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="475" spans="1:1">
+      <c r="B474" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
       <c r="A475" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="476" spans="1:1">
+      <c r="B475" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
       <c r="A476" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="477" spans="1:1">
+      <c r="B476" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
       <c r="A477" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="478" spans="1:1">
+      <c r="B477" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
       <c r="A478" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="479" spans="1:1">
+      <c r="B478" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
       <c r="A479" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="480" spans="1:1">
+      <c r="B479" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
       <c r="A480" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="481" spans="1:1">
+      <c r="B480" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
       <c r="A481" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="482" spans="1:1">
+      <c r="B481" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
       <c r="A482" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="483" spans="1:1">
+      <c r="B482" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
       <c r="A483" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="484" spans="1:1">
-      <c r="A484" s="2" t="s">
+      <c r="B483" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="2">
+        <v>13842395600</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="2">
+        <v>13803718060</v>
+      </c>
+      <c r="B485" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="485" spans="1:1">
-      <c r="A485" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="486" spans="1:1">
-      <c r="A486" s="2" t="s">
-        <v>112</v>
+      <c r="A486" s="2">
+        <v>13905159821</v>
       </c>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" s="2" t="s">
-        <v>113</v>
+      <c r="A487" s="2">
+        <v>13332095268</v>
       </c>
     </row>
     <row r="488" spans="1:1">
-      <c r="A488" s="2" t="s">
-        <v>114</v>
+      <c r="A488" s="2">
+        <v>13901623273</v>
       </c>
     </row>
     <row r="489" spans="1:1">
-      <c r="A489" s="2" t="s">
-        <v>115</v>
+      <c r="A489" s="2">
+        <v>13631363009</v>
       </c>
     </row>
     <row r="490" spans="1:1">
-      <c r="A490" s="2" t="s">
-        <v>116</v>
+      <c r="A490" s="2">
+        <v>13786301629</v>
       </c>
     </row>
     <row r="491" spans="1:1">
-      <c r="A491" s="2" t="s">
-        <v>117</v>
+      <c r="A491" s="2">
+        <v>13701724816</v>
       </c>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" s="2" t="s">
-        <v>118</v>
+      <c r="A492" s="2">
+        <v>13761311611</v>
       </c>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" s="2" t="s">
-        <v>119</v>
+      <c r="A493" s="2">
+        <v>13185104381</v>
       </c>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="2" t="s">
-        <v>120</v>
+      <c r="A494" s="2">
+        <v>13482710913</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="510" spans="1:1">
-      <c r="A510" s="2">
-        <v>13842395600</v>
+      <c r="A510" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" s="2">
-        <v>13803718060</v>
+        <v>13552682680</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="2">
-        <v>13905159821</v>
+        <v>13851601620</v>
       </c>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" s="2">
-        <v>13332095268</v>
+      <c r="A513" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" s="2">
-        <v>13901623273</v>
+      <c r="A514" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="515" spans="1:1">
-      <c r="A515" s="2">
-        <v>13631363009</v>
+      <c r="A515" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="516" spans="1:1">
-      <c r="A516" s="2">
-        <v>13786301629</v>
+      <c r="A516" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="517" spans="1:1">
-      <c r="A517" s="2">
-        <v>13701724816</v>
+      <c r="A517" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" s="2">
-        <v>13761311611</v>
+      <c r="A518" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="519" spans="1:1">
-      <c r="A519" s="2">
-        <v>13185104381</v>
+      <c r="A519" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="520" spans="1:1">
-      <c r="A520" s="2">
-        <v>13482710913</v>
+      <c r="A520" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="537" spans="1:1">
-      <c r="A537" s="2">
-        <v>13552682680</v>
-      </c>
-    </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="2">
-        <v>13851601620</v>
+      <c r="A538" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="547" spans="1:1">
-      <c r="A547" s="2" t="s">
-        <v>160</v>
+      <c r="A547" s="2">
+        <v>13623867707</v>
       </c>
     </row>
     <row r="548" spans="1:1">
@@ -6238,1652 +6241,1522 @@
       </c>
     </row>
     <row r="556" spans="1:1">
-      <c r="A556" s="2" t="s">
-        <v>169</v>
+      <c r="A556" s="2">
+        <v>13842718165</v>
       </c>
     </row>
     <row r="557" spans="1:1">
-      <c r="A557" s="2" t="s">
-        <v>170</v>
+      <c r="A557" s="2">
+        <v>13888174883</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="561" spans="1:1">
-      <c r="A561" s="2" t="s">
-        <v>174</v>
+      <c r="A561" s="2">
+        <v>13912984791</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="565" spans="1:1">
-      <c r="A565" s="2" t="s">
-        <v>178</v>
+      <c r="A565" s="2">
+        <v>13017349892</v>
       </c>
     </row>
     <row r="566" spans="1:1">
-      <c r="A566" s="2" t="s">
-        <v>179</v>
+      <c r="A566" s="2">
+        <v>13645170996</v>
       </c>
     </row>
     <row r="567" spans="1:1">
-      <c r="A567" s="2" t="s">
-        <v>180</v>
+      <c r="A567" s="2">
+        <v>13669286913</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="573" spans="1:1">
-      <c r="A573" s="2">
-        <v>13623867707</v>
+      <c r="A573" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="578" spans="1:1">
-      <c r="A578" s="2" t="s">
-        <v>190</v>
+      <c r="A578" s="2">
+        <v>13089424822</v>
       </c>
     </row>
     <row r="579" spans="1:1">
-      <c r="A579" s="2" t="s">
-        <v>191</v>
+      <c r="A579" s="2">
+        <v>13578061986</v>
       </c>
     </row>
     <row r="580" spans="1:1">
-      <c r="A580" s="2" t="s">
-        <v>192</v>
+      <c r="A580" s="2">
+        <v>13886366198</v>
       </c>
     </row>
     <row r="581" spans="1:1">
-      <c r="A581" s="2" t="s">
-        <v>193</v>
+      <c r="A581" s="2">
+        <v>13788579808</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" s="2">
-        <v>13842718165</v>
+        <v>13873331681</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" s="2">
-        <v>13888174883</v>
+        <v>13014394221</v>
       </c>
     </row>
     <row r="584" spans="1:1">
-      <c r="A584" s="2" t="s">
-        <v>194</v>
+      <c r="A584" s="2">
+        <v>13991802235</v>
       </c>
     </row>
     <row r="585" spans="1:1">
-      <c r="A585" s="2" t="s">
-        <v>195</v>
+      <c r="A585" s="2">
+        <v>13681301519</v>
       </c>
     </row>
     <row r="586" spans="1:1">
-      <c r="A586" s="2" t="s">
-        <v>196</v>
+      <c r="A586" s="2">
+        <v>13778251306</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" s="2">
-        <v>13912984791</v>
+        <v>13511274800</v>
       </c>
     </row>
     <row r="588" spans="1:1">
-      <c r="A588" s="2" t="s">
-        <v>197</v>
+      <c r="A588" s="2">
+        <v>13308229661</v>
       </c>
     </row>
     <row r="589" spans="1:1">
-      <c r="A589" s="2" t="s">
-        <v>198</v>
+      <c r="A589" s="2">
+        <v>13875567691</v>
       </c>
     </row>
     <row r="590" spans="1:1">
-      <c r="A590" s="2" t="s">
-        <v>199</v>
+      <c r="A590" s="2">
+        <v>13938637483</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" s="2">
-        <v>13017349892</v>
+        <v>13661130057</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" s="2">
-        <v>13645170996</v>
+        <v>13969155228</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" s="2">
-        <v>13669286913</v>
+        <v>13704995587</v>
       </c>
     </row>
     <row r="594" spans="1:1">
-      <c r="A594" s="2" t="s">
-        <v>200</v>
+      <c r="A594" s="2">
+        <v>13787260609</v>
       </c>
     </row>
     <row r="595" spans="1:1">
-      <c r="A595" s="2" t="s">
-        <v>201</v>
+      <c r="A595" s="2">
+        <v>13861477220</v>
       </c>
     </row>
     <row r="596" spans="1:1">
-      <c r="A596" s="2" t="s">
-        <v>202</v>
+      <c r="A596" s="2">
+        <v>13303412278</v>
       </c>
     </row>
     <row r="597" spans="1:1">
-      <c r="A597" s="2" t="s">
-        <v>203</v>
+      <c r="A597" s="2">
+        <v>13813996808</v>
       </c>
     </row>
     <row r="598" spans="1:1">
-      <c r="A598" s="2" t="s">
-        <v>204</v>
+      <c r="A598" s="2">
+        <v>13007422778</v>
       </c>
     </row>
     <row r="599" spans="1:1">
-      <c r="A599" s="2" t="s">
-        <v>205</v>
+      <c r="A599" s="2">
+        <v>13679448109</v>
       </c>
     </row>
     <row r="600" spans="1:1">
-      <c r="A600" s="2" t="s">
-        <v>206</v>
+      <c r="A600" s="2">
+        <v>13845618560</v>
       </c>
     </row>
     <row r="601" spans="1:1">
-      <c r="A601" s="2" t="s">
-        <v>207</v>
+      <c r="A601" s="2">
+        <v>13671813120</v>
       </c>
     </row>
     <row r="602" spans="1:1">
-      <c r="A602" s="2" t="s">
-        <v>208</v>
+      <c r="A602" s="2">
+        <v>13953535173</v>
       </c>
     </row>
     <row r="603" spans="1:1">
-      <c r="A603" s="2" t="s">
-        <v>209</v>
+      <c r="A603" s="2">
+        <v>13009888730</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" s="2">
-        <v>13089424822</v>
+        <v>13503951657</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" s="2">
-        <v>13578061986</v>
+        <v>13535611189</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" s="2">
-        <v>13886366198</v>
+        <v>13589891528</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" s="2">
-        <v>13788579808</v>
+        <v>13894429170</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" s="2">
-        <v>13873331681</v>
+        <v>13944608126</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" s="2">
-        <v>13014394221</v>
+        <v>13081902866</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" s="2">
-        <v>13991802235</v>
+        <v>13966908445</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" s="2">
-        <v>13681301519</v>
+        <v>13311375025</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" s="2">
-        <v>13778251306</v>
+        <v>13706323437</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" s="2">
-        <v>13511274800</v>
+        <v>13708489936</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" s="2">
-        <v>13308229661</v>
+        <v>13777360583</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" s="2">
-        <v>13875567691</v>
+        <v>13328000217</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" s="2">
-        <v>13938637483</v>
+        <v>13963791793</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" s="2">
-        <v>13661130057</v>
+        <v>13957012654</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" s="2">
-        <v>13969155228</v>
+        <v>13396349299</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="2">
-        <v>13704995587</v>
+        <v>13603140009</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" s="2">
-        <v>13787260609</v>
+        <v>13953809222</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="2">
-        <v>13861477220</v>
+        <v>13515731966</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" s="2">
-        <v>13303412278</v>
+        <v>13163666385</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="2">
-        <v>13813996808</v>
+        <v>13933046101</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" s="2">
-        <v>13007422778</v>
+        <v>13978453953</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="2">
-        <v>13679448109</v>
+        <v>13804717441</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" s="2">
-        <v>13845618560</v>
+        <v>13613664329</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="2">
-        <v>13671813120</v>
+        <v>13032122791</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" s="2">
-        <v>13953535173</v>
+        <v>13034612430</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="2">
-        <v>13009888730</v>
+        <v>13087239008</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" s="2">
-        <v>13503951657</v>
+        <v>13916112282</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="2">
-        <v>13535611189</v>
+        <v>13387149981</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" s="2">
-        <v>13589891528</v>
+        <v>13131520021</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="2">
-        <v>13894429170</v>
+        <v>13651990394</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" s="2">
-        <v>13944608126</v>
+        <v>13029862130</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="2">
-        <v>13081902866</v>
+        <v>13100313470</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" s="2">
-        <v>13966908445</v>
+        <v>13181925582</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="2">
-        <v>13311375025</v>
+        <v>13931465704</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" s="2">
-        <v>13706323437</v>
+        <v>13307118180</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="2">
-        <v>13708489936</v>
+        <v>13964360748</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" s="2">
-        <v>13777360583</v>
+        <v>13017079973</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="2">
-        <v>13328000217</v>
+        <v>13941047099</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" s="2">
-        <v>13963791793</v>
+        <v>13084811310</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="2">
-        <v>13957012654</v>
+        <v>13643877062</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" s="2">
-        <v>13396349299</v>
+        <v>13525637580</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="2">
-        <v>13603140009</v>
+        <v>13986119661</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" s="2">
-        <v>13953809222</v>
+        <v>13951226978</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="2">
-        <v>13515731966</v>
+        <v>13545239018</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" s="2">
-        <v>13163666385</v>
+        <v>13605712664</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="2">
-        <v>13933046101</v>
+        <v>13890201636</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" s="2">
-        <v>13978453953</v>
+        <v>13857076126</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="2">
-        <v>13804717441</v>
+        <v>13964275801</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" s="2">
-        <v>13613664329</v>
+        <v>13857190897</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="2">
-        <v>13032122791</v>
+        <v>13853780470</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" s="2">
-        <v>13034612430</v>
+        <v>13156153569</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="2">
-        <v>13087239008</v>
+        <v>13708303078</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" s="2">
-        <v>13916112282</v>
+        <v>13070505791</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="2">
-        <v>13387149981</v>
+        <v>13155498038</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" s="2">
-        <v>13131520021</v>
+        <v>13864713962</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="2">
-        <v>13651990394</v>
+        <v>13019350258</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" s="2">
-        <v>13029862130</v>
+        <v>13995878685</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="2">
-        <v>13100313470</v>
+        <v>13945296296</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" s="2">
-        <v>13181925582</v>
+        <v>13328925030</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="2">
-        <v>13931465704</v>
+        <v>13003707779</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" s="2">
-        <v>13307118180</v>
+        <v>13516353305</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="2">
-        <v>13964360748</v>
+        <v>13505423489</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" s="2">
-        <v>13017079973</v>
+        <v>13197022358</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="2">
-        <v>13941047099</v>
+        <v>13807381871</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" s="2">
-        <v>13084811310</v>
+        <v>13507596179</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="2">
-        <v>13643877062</v>
+        <v>13809404879</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" s="2">
-        <v>13525637580</v>
+        <v>13871824449</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="2">
-        <v>13986119661</v>
+        <v>13032510057</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" s="2">
-        <v>13951226978</v>
+        <v>1380700263</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="2">
-        <v>13545239018</v>
+        <v>13969933599</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" s="2">
-        <v>13605712664</v>
+        <v>13864101863</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="2">
-        <v>13890201636</v>
+        <v>13845953063</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" s="2">
-        <v>13857076126</v>
+        <v>13985076565</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="2">
-        <v>13964275801</v>
+        <v>13061615860</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" s="2">
-        <v>13857190897</v>
+        <v>13218383062</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="2">
-        <v>13853780470</v>
+        <v>1387495839</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" s="2">
-        <v>13156153569</v>
+        <v>13336139078</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="2">
-        <v>13708303078</v>
+        <v>13778997758</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" s="2">
-        <v>13070505791</v>
+        <v>13920955985</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="2">
-        <v>13155498038</v>
+        <v>13013625165</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" s="2">
-        <v>13864713962</v>
+        <v>13967260098</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="2">
-        <v>13019350258</v>
+        <v>13707342065</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" s="2">
-        <v>13995878685</v>
+        <v>13981317358</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="2">
-        <v>13945296296</v>
+        <v>13987140719</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" s="2">
-        <v>13328925030</v>
+        <v>13605945539</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="2">
-        <v>13003707779</v>
+        <v>13905848361</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690" s="2">
-        <v>13516353305</v>
+        <v>13077787299</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="2">
-        <v>13505423489</v>
+        <v>13757901388</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692" s="2">
-        <v>13197022358</v>
+        <v>13085026547</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="2">
-        <v>13807381871</v>
+        <v>13836033168</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694" s="2">
-        <v>13507596179</v>
+        <v>13937381328</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="2">
-        <v>13809404879</v>
+        <v>13117570388</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" s="2">
-        <v>13871824449</v>
+        <v>13719326577</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="2">
-        <v>13032510057</v>
+        <v>13705016579</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" s="2">
-        <v>1380700263</v>
+        <v>13019016245</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="2">
-        <v>13969933599</v>
+        <v>13807322708</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" s="2">
-        <v>13864101863</v>
+        <v>13515559872</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="2">
-        <v>13845953063</v>
+        <v>13839058663</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" s="2">
-        <v>13985076565</v>
+        <v>13355806111</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="2">
-        <v>13061615860</v>
+        <v>13898127574</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" s="2">
-        <v>13218383062</v>
+        <v>13061300057</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="2">
-        <v>1387495839</v>
+        <v>13035699376</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" s="2">
-        <v>13336139078</v>
+        <v>13603762732</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="2">
-        <v>13778997758</v>
+        <v>13963857868</v>
       </c>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="2">
-        <v>13920955985</v>
+      <c r="A708" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="709" spans="1:1">
-      <c r="A709" s="2">
-        <v>13013625165</v>
+      <c r="A709" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="2">
-        <v>13967260098</v>
+      <c r="A710" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="711" spans="1:1">
-      <c r="A711" s="2">
-        <v>13707342065</v>
+      <c r="A711" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="2">
-        <v>13981317358</v>
+      <c r="A712" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="713" spans="1:1">
-      <c r="A713" s="2">
-        <v>13987140719</v>
+      <c r="A713" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="2">
-        <v>13605945539</v>
+      <c r="A714" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="715" spans="1:1">
-      <c r="A715" s="2">
-        <v>13905848361</v>
+      <c r="A715" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="2">
-        <v>13077787299</v>
+      <c r="A716" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="717" spans="1:1">
-      <c r="A717" s="2">
-        <v>13757901388</v>
+      <c r="A717" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="2">
-        <v>13085026547</v>
+      <c r="A718" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="719" spans="1:1">
-      <c r="A719" s="2">
-        <v>13836033168</v>
+      <c r="A719" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="2">
-        <v>13937381328</v>
+      <c r="A720" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="721" spans="1:1">
-      <c r="A721" s="2">
-        <v>13117570388</v>
+      <c r="A721" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="2">
-        <v>13719326577</v>
+      <c r="A722" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="723" spans="1:1">
-      <c r="A723" s="2">
-        <v>13705016579</v>
+      <c r="A723" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="2">
-        <v>13019016245</v>
+      <c r="A724" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="725" spans="1:1">
-      <c r="A725" s="2">
-        <v>13807322708</v>
+      <c r="A725" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="2">
-        <v>13515559872</v>
+      <c r="A726" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="727" spans="1:1">
-      <c r="A727" s="2">
-        <v>13839058663</v>
+      <c r="A727" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="2">
-        <v>13355806111</v>
+      <c r="A728" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="729" spans="1:1">
-      <c r="A729" s="2">
-        <v>13898127574</v>
+      <c r="A729" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="2">
-        <v>13061300057</v>
+      <c r="A730" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="731" spans="1:1">
-      <c r="A731" s="2">
-        <v>13035699376</v>
+      <c r="A731" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="2">
-        <v>13603762732</v>
+      <c r="A732" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="733" spans="1:1">
-      <c r="A733" s="2">
-        <v>13963857868</v>
+      <c r="A733" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="859" spans="1:1">
-      <c r="A859" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="860" spans="1:1">
-      <c r="A860" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="861" spans="1:1">
-      <c r="A861" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="862" spans="1:1">
-      <c r="A862" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="863" spans="1:1">
-      <c r="A863" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="864" spans="1:1">
-      <c r="A864" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="865" spans="1:1">
-      <c r="A865" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="866" spans="1:1">
-      <c r="A866" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="867" spans="1:1">
-      <c r="A867" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="868" spans="1:1">
-      <c r="A868" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="869" spans="1:1">
-      <c r="A869" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="870" spans="1:1">
-      <c r="A870" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="871" spans="1:1">
-      <c r="A871" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="872" spans="1:1">
-      <c r="A872" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="873" spans="1:1">
-      <c r="A873" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="874" spans="1:1">
-      <c r="A874" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="875" spans="1:1">
-      <c r="A875" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="876" spans="1:1">
-      <c r="A876" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="877" spans="1:1">
-      <c r="A877" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="878" spans="1:1">
-      <c r="A878" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="879" spans="1:1">
-      <c r="A879" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="880" spans="1:1">
-      <c r="A880" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="881" spans="1:1">
-      <c r="A881" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="882" spans="1:1">
-      <c r="A882" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="883" spans="1:1">
-      <c r="A883" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="884" spans="1:1">
-      <c r="A884" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="885" spans="1:1">
-      <c r="A885" s="2">
+      <c r="A859" s="2">
         <v>13585389283</v>
       </c>
     </row>
